--- a/Macro/Sp500 Performance.xlsx
+++ b/Macro/Sp500 Performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/Financials/Meu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/Contabilidade/Finance/Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="437" documentId="8_{19B4C01C-FB66-4D00-BB83-0D763A386552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2946F32-522D-4A4E-881C-78FA199E941C}"/>
+  <xr:revisionPtr revIDLastSave="439" documentId="8_{19B4C01C-FB66-4D00-BB83-0D763A386552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FABD684A-5D0C-4DD0-8A7E-BE9B430C624F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3915" yWindow="3765" windowWidth="21600" windowHeight="11295" xr2:uid="{F5072211-9D0E-40D6-9508-D60B2CDFFF49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5072211-9D0E-40D6-9508-D60B2CDFFF49}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35058BF-4C56-4770-91B7-2B435194DCAA}">
   <dimension ref="A2:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="11">
-        <f t="shared" si="2"/>
+        <f>+M10+1</f>
         <v>1989</v>
       </c>
       <c r="N11" s="29">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11">
-        <f t="shared" si="2"/>
+        <f>+M11+1</f>
         <v>1990</v>
       </c>
       <c r="N12" s="26">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11">
-        <f t="shared" si="2"/>
+        <f>+M12+1</f>
         <v>1991</v>
       </c>
       <c r="N13" s="28">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11">
-        <f t="shared" si="2"/>
+        <f>+M13+1</f>
         <v>1992</v>
       </c>
       <c r="N14" s="28">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="11">
-        <f t="shared" si="2"/>
+        <f>+M14+1</f>
         <v>1993</v>
       </c>
       <c r="N15" s="29">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="11">
-        <f t="shared" si="2"/>
+        <f>+M15+1</f>
         <v>1994</v>
       </c>
       <c r="N16" s="26">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11">
-        <f t="shared" si="2"/>
+        <f>+M16+1</f>
         <v>1995</v>
       </c>
       <c r="N17" s="28">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="11">
-        <f t="shared" si="2"/>
+        <f>+M17+1</f>
         <v>1996</v>
       </c>
       <c r="N18" s="28">

--- a/Macro/Sp500 Performance.xlsx
+++ b/Macro/Sp500 Performance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/Contabilidade/Finance/Macro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="439" documentId="8_{19B4C01C-FB66-4D00-BB83-0D763A386552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FABD684A-5D0C-4DD0-8A7E-BE9B430C624F}"/>
+  <xr:revisionPtr revIDLastSave="444" documentId="8_{19B4C01C-FB66-4D00-BB83-0D763A386552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2D1F1F8-579B-487F-A78F-9601EF3C5057}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5072211-9D0E-40D6-9508-D60B2CDFFF49}"/>
   </bookViews>
@@ -204,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,6 +250,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,12 +591,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35058BF-4C56-4770-91B7-2B435194DCAA}">
   <dimension ref="A2:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -1150,7 +1152,7 @@
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="11">
-        <f>+M10+1</f>
+        <f t="shared" ref="M11:M18" si="3">+M10+1</f>
         <v>1989</v>
       </c>
       <c r="N11" s="29">
@@ -1204,7 +1206,7 @@
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11">
-        <f>+M11+1</f>
+        <f t="shared" si="3"/>
         <v>1990</v>
       </c>
       <c r="N12" s="26">
@@ -1258,7 +1260,7 @@
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11">
-        <f>+M12+1</f>
+        <f t="shared" si="3"/>
         <v>1991</v>
       </c>
       <c r="N13" s="28">
@@ -1310,7 +1312,7 @@
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11">
-        <f>+M13+1</f>
+        <f t="shared" si="3"/>
         <v>1992</v>
       </c>
       <c r="N14" s="28">
@@ -1364,7 +1366,7 @@
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="11">
-        <f>+M14+1</f>
+        <f t="shared" si="3"/>
         <v>1993</v>
       </c>
       <c r="N15" s="29">
@@ -1418,7 +1420,7 @@
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="11">
-        <f>+M15+1</f>
+        <f t="shared" si="3"/>
         <v>1994</v>
       </c>
       <c r="N16" s="26">
@@ -1470,7 +1472,7 @@
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11">
-        <f>+M16+1</f>
+        <f t="shared" si="3"/>
         <v>1995</v>
       </c>
       <c r="N17" s="28">
@@ -1522,7 +1524,7 @@
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="11">
-        <f>+M17+1</f>
+        <f t="shared" si="3"/>
         <v>1996</v>
       </c>
       <c r="N18" s="28">
@@ -1586,7 +1588,7 @@
       </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11">
-        <f t="shared" ref="P19:P21" si="3">+P18+1</f>
+        <f t="shared" ref="P19:P21" si="4">+P18+1</f>
         <v>2017</v>
       </c>
       <c r="Q19" s="28">
@@ -1638,7 +1640,7 @@
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2018</v>
       </c>
       <c r="Q20" s="26">
@@ -1691,7 +1693,7 @@
       </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2019</v>
       </c>
       <c r="Q21" s="28">
@@ -1729,11 +1731,17 @@
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="31">
+        <v>35000000</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="H25" s="11"/>
       <c r="V25" s="7"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="31">
+        <v>346</v>
+      </c>
       <c r="E26" s="30" t="s">
         <v>0</v>
       </c>
@@ -1743,6 +1751,10 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="31">
+        <f>+B25/B26</f>
+        <v>101156.06936416186</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="H27" s="11"/>
     </row>

--- a/Macro/Sp500 Performance.xlsx
+++ b/Macro/Sp500 Performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="444" documentId="8_{19B4C01C-FB66-4D00-BB83-0D763A386552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2D1F1F8-579B-487F-A78F-9601EF3C5057}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="8_{19B4C01C-FB66-4D00-BB83-0D763A386552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FDA5556-8DA7-4318-8E15-19C6B4AB1218}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5072211-9D0E-40D6-9508-D60B2CDFFF49}"/>
+    <workbookView xWindow="2520" yWindow="1365" windowWidth="23070" windowHeight="12555" xr2:uid="{F5072211-9D0E-40D6-9508-D60B2CDFFF49}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -241,8 +241,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -266,10 +264,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35058BF-4C56-4770-91B7-2B435194DCAA}">
   <dimension ref="A2:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="XEH1" workbookViewId="0">
+      <selection activeCell="XFD3" sqref="XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +601,7 @@
       <c r="A2" s="11">
         <v>1900</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C2" s="11"/>
@@ -615,7 +609,7 @@
         <f>+A21+1</f>
         <v>1920</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="24">
         <v>-0.32600000000000001</v>
       </c>
       <c r="F2" s="22" t="s">
@@ -625,7 +619,7 @@
         <f>+D21+1</f>
         <v>1940</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="24">
         <v>-0.15290000000000001</v>
       </c>
       <c r="I2" s="12"/>
@@ -633,7 +627,7 @@
         <f>+G21+1</f>
         <v>1960</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="24">
         <v>-2.9700000000000001E-2</v>
       </c>
       <c r="L2" s="12"/>
@@ -641,7 +635,7 @@
         <f>+J21+1</f>
         <v>1980</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="27">
         <v>0.25769999999999998</v>
       </c>
       <c r="O2" s="11"/>
@@ -649,7 +643,7 @@
         <f>+M21+1</f>
         <v>2000</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="24">
         <v>-0.1014</v>
       </c>
       <c r="R2" s="12" t="s">
@@ -659,8 +653,8 @@
         <f>+P21+1</f>
         <v>2020</v>
       </c>
-      <c r="T2" s="11">
-        <v>16.260000000000002</v>
+      <c r="T2" s="26">
+        <v>0.16259999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -668,7 +662,7 @@
         <f>+A2+1</f>
         <v>1901</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="24">
         <v>-8.6999999999999994E-2</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -678,7 +672,7 @@
         <f>+D2+1</f>
         <v>1921</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="25">
         <v>0.105</v>
       </c>
       <c r="F3" s="11"/>
@@ -686,7 +680,7 @@
         <f>+G2+1</f>
         <v>1941</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="24">
         <v>-0.17860000000000001</v>
       </c>
       <c r="I3" s="12"/>
@@ -694,7 +688,7 @@
         <f>+J2+1</f>
         <v>1961</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="26">
         <v>0.23130000000000001</v>
       </c>
       <c r="L3" s="11"/>
@@ -702,7 +696,7 @@
         <f>+M2+1</f>
         <v>1981</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="24">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="O3" s="12"/>
@@ -710,7 +704,7 @@
         <f t="shared" ref="P3:S18" si="0">+P2+1</f>
         <v>2001</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="24">
         <v>-0.13039999999999999</v>
       </c>
       <c r="R3" s="12" t="s">
@@ -720,8 +714,8 @@
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="T3" s="11">
-        <v>26.89</v>
+      <c r="T3" s="26">
+        <v>0.26889999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -729,7 +723,7 @@
         <f t="shared" ref="A4:A21" si="1">+A3+1</f>
         <v>1902</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="26">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="C4" s="11"/>
@@ -737,7 +731,7 @@
         <f t="shared" ref="D4:M21" si="2">+D3+1</f>
         <v>1922</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="25">
         <v>0.217</v>
       </c>
       <c r="F4" s="11"/>
@@ -745,7 +739,7 @@
         <f t="shared" si="2"/>
         <v>1942</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="26">
         <v>0.12429999999999999</v>
       </c>
       <c r="I4" s="11"/>
@@ -753,7 +747,7 @@
         <f t="shared" si="2"/>
         <v>1962</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="24">
         <v>-0.1181</v>
       </c>
       <c r="L4" s="12"/>
@@ -761,7 +755,7 @@
         <f t="shared" si="2"/>
         <v>1982</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="27">
         <v>0.14760000000000001</v>
       </c>
       <c r="O4" s="11"/>
@@ -769,7 +763,7 @@
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="24">
         <v>-0.23369999999999999</v>
       </c>
       <c r="R4" s="12"/>
@@ -777,8 +771,8 @@
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="T4" s="12">
-        <v>-19.440000000000001</v>
+      <c r="T4" s="24">
+        <v>-0.19439999999999999</v>
       </c>
       <c r="U4" t="s">
         <v>7</v>
@@ -789,7 +783,7 @@
         <f t="shared" si="1"/>
         <v>1903</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="24">
         <v>-0.23599999999999999</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -799,7 +793,7 @@
         <f t="shared" si="2"/>
         <v>1923</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="24">
         <v>-3.3000000000000002E-2</v>
       </c>
       <c r="F5" s="11"/>
@@ -807,7 +801,7 @@
         <f t="shared" si="2"/>
         <v>1943</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="26">
         <v>0.19450000000000001</v>
       </c>
       <c r="I5" s="11"/>
@@ -815,7 +809,7 @@
         <f t="shared" si="2"/>
         <v>1963</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="26">
         <v>0.18890000000000001</v>
       </c>
       <c r="L5" s="11"/>
@@ -823,7 +817,7 @@
         <f t="shared" si="2"/>
         <v>1983</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="26">
         <v>0.17269999999999999</v>
       </c>
       <c r="O5" s="11"/>
@@ -831,7 +825,7 @@
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="26">
         <v>0.26379999999999998</v>
       </c>
       <c r="R5" s="11"/>
@@ -839,8 +833,8 @@
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="T5" s="11">
-        <v>24.23</v>
+      <c r="T5" s="26">
+        <v>0.24229999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -848,7 +842,7 @@
         <f t="shared" si="1"/>
         <v>1904</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="26">
         <v>0.41699999999999998</v>
       </c>
       <c r="C6" s="11"/>
@@ -856,7 +850,7 @@
         <f t="shared" si="2"/>
         <v>1924</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="25">
         <v>0.26700000000000002</v>
       </c>
       <c r="F6" s="11"/>
@@ -864,7 +858,7 @@
         <f t="shared" si="2"/>
         <v>1944</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="26">
         <v>0.13800000000000001</v>
       </c>
       <c r="I6" s="11"/>
@@ -872,7 +866,7 @@
         <f t="shared" si="2"/>
         <v>1964</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="26">
         <v>0.12970000000000001</v>
       </c>
       <c r="L6" s="11"/>
@@ -880,7 +874,7 @@
         <f t="shared" si="2"/>
         <v>1984</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="26">
         <v>1.4E-2</v>
       </c>
       <c r="O6" s="11"/>
@@ -888,7 +882,7 @@
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="26">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="R6" s="11"/>
@@ -896,7 +890,7 @@
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="26">
         <v>0.2331</v>
       </c>
     </row>
@@ -905,7 +899,7 @@
         <f t="shared" si="1"/>
         <v>1905</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="26">
         <v>0.38200000000000001</v>
       </c>
       <c r="C7" s="11"/>
@@ -913,7 +907,7 @@
         <f t="shared" si="2"/>
         <v>1925</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="25">
         <v>0.3</v>
       </c>
       <c r="F7" s="11"/>
@@ -921,7 +915,7 @@
         <f t="shared" si="2"/>
         <v>1945</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="26">
         <v>0.30719999999999997</v>
       </c>
       <c r="I7" s="11"/>
@@ -929,7 +923,7 @@
         <f t="shared" si="2"/>
         <v>1965</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="26">
         <v>9.06E-2</v>
       </c>
       <c r="L7" s="11"/>
@@ -937,7 +931,7 @@
         <f t="shared" si="2"/>
         <v>1985</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="26">
         <v>0.26300000000000001</v>
       </c>
       <c r="O7" s="11"/>
@@ -945,7 +939,7 @@
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="26">
         <v>0.03</v>
       </c>
       <c r="R7" s="11"/>
@@ -960,7 +954,7 @@
         <f t="shared" si="1"/>
         <v>1906</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="26">
         <v>2.3E-2</v>
       </c>
       <c r="C8" s="11"/>
@@ -968,7 +962,7 @@
         <f t="shared" si="2"/>
         <v>1926</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="25">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F8" s="11"/>
@@ -976,7 +970,7 @@
         <f t="shared" si="2"/>
         <v>1946</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="24">
         <v>-0.1187</v>
       </c>
       <c r="I8" s="12"/>
@@ -984,7 +978,7 @@
         <f t="shared" si="2"/>
         <v>1966</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="24">
         <v>-0.13089999999999999</v>
       </c>
       <c r="L8" s="12"/>
@@ -992,7 +986,7 @@
         <f t="shared" si="2"/>
         <v>1986</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="27">
         <v>0.1462</v>
       </c>
       <c r="O8" s="11"/>
@@ -1000,7 +994,7 @@
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="26">
         <v>0.13619999999999999</v>
       </c>
       <c r="R8" s="11"/>
@@ -1012,7 +1006,7 @@
         <f t="shared" si="1"/>
         <v>1907</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="24">
         <v>-0.377</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -1022,7 +1016,7 @@
         <f t="shared" si="2"/>
         <v>1927</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="25">
         <v>0.379</v>
       </c>
       <c r="F9" s="11"/>
@@ -1030,7 +1024,7 @@
         <f t="shared" si="2"/>
         <v>1947</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="27">
         <v>0</v>
       </c>
       <c r="I9" s="13"/>
@@ -1038,7 +1032,7 @@
         <f t="shared" si="2"/>
         <v>1967</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="26">
         <v>0.2009</v>
       </c>
       <c r="L9" s="11"/>
@@ -1046,7 +1040,7 @@
         <f t="shared" si="2"/>
         <v>1987</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="26">
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="O9" s="11"/>
@@ -1054,7 +1048,7 @@
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="26">
         <v>3.5299999999999998E-2</v>
       </c>
       <c r="R9" s="11"/>
@@ -1067,7 +1061,7 @@
         <f t="shared" si="1"/>
         <v>1908</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="26">
         <v>0.46600000000000003</v>
       </c>
       <c r="C10" s="11"/>
@@ -1075,7 +1069,7 @@
         <f t="shared" si="2"/>
         <v>1928</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="25">
         <v>0.436</v>
       </c>
       <c r="F10" s="15"/>
@@ -1083,7 +1077,7 @@
         <f t="shared" si="2"/>
         <v>1948</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="24">
         <v>-6.4999999999999997E-3</v>
       </c>
       <c r="I10" s="11"/>
@@ -1091,7 +1085,7 @@
         <f t="shared" si="2"/>
         <v>1968</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="26">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="L10" s="11"/>
@@ -1099,7 +1093,7 @@
         <f t="shared" si="2"/>
         <v>1988</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="26">
         <v>0.124</v>
       </c>
       <c r="O10" s="11"/>
@@ -1107,7 +1101,7 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="24">
         <v>-0.38490000000000002</v>
       </c>
       <c r="R10" s="12" t="s">
@@ -1121,7 +1115,7 @@
         <f t="shared" si="1"/>
         <v>1909</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="25">
         <v>0.14099999999999999</v>
       </c>
       <c r="C11" s="11"/>
@@ -1129,7 +1123,7 @@
         <f t="shared" si="2"/>
         <v>1929</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="24">
         <v>-0.1191</v>
       </c>
       <c r="F11" s="17" t="s">
@@ -1139,7 +1133,7 @@
         <f t="shared" si="2"/>
         <v>1949</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="25">
         <v>0.1026</v>
       </c>
       <c r="I11" s="11"/>
@@ -1147,7 +1141,7 @@
         <f t="shared" si="2"/>
         <v>1969</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="24">
         <v>-0.11360000000000001</v>
       </c>
       <c r="L11" s="12"/>
@@ -1155,7 +1149,7 @@
         <f t="shared" ref="M11:M18" si="3">+M10+1</f>
         <v>1989</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="27">
         <v>0.27250000000000002</v>
       </c>
       <c r="O11" s="11"/>
@@ -1163,7 +1157,7 @@
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="26">
         <v>0.23449999999999999</v>
       </c>
       <c r="R11" s="11"/>
@@ -1175,7 +1169,7 @@
         <f t="shared" si="1"/>
         <v>1910</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="24">
         <v>-0.17899999999999999</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -1185,7 +1179,7 @@
         <f t="shared" si="2"/>
         <v>1930</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="24">
         <v>0.2848</v>
       </c>
       <c r="F12" s="15"/>
@@ -1193,7 +1187,7 @@
         <f t="shared" si="2"/>
         <v>1950</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="26">
         <v>0.21779999999999999</v>
       </c>
       <c r="I12" s="11"/>
@@ -1201,7 +1195,7 @@
         <f t="shared" si="2"/>
         <v>1970</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="26">
         <v>1E-3</v>
       </c>
       <c r="L12" s="11"/>
@@ -1209,7 +1203,7 @@
         <f t="shared" si="3"/>
         <v>1990</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="24">
         <v>-6.5600000000000006E-2</v>
       </c>
       <c r="O12" s="12"/>
@@ -1217,7 +1211,7 @@
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="26">
         <v>0.1278</v>
       </c>
       <c r="R12" s="11"/>
@@ -1229,7 +1223,7 @@
         <f t="shared" si="1"/>
         <v>1911</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="26">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C13" s="11"/>
@@ -1237,7 +1231,7 @@
         <f t="shared" si="2"/>
         <v>1931</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="24">
         <v>-0.47070000000000001</v>
       </c>
       <c r="F13" s="16" t="s">
@@ -1247,7 +1241,7 @@
         <f t="shared" si="2"/>
         <v>1951</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="26">
         <v>0.1646</v>
       </c>
       <c r="I13" s="11"/>
@@ -1255,7 +1249,7 @@
         <f t="shared" si="2"/>
         <v>1971</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="26">
         <v>0.1079</v>
       </c>
       <c r="L13" s="11"/>
@@ -1263,7 +1257,7 @@
         <f t="shared" si="3"/>
         <v>1991</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="26">
         <v>0.2631</v>
       </c>
       <c r="O13" s="11"/>
@@ -1271,7 +1265,7 @@
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="26">
         <v>0</v>
       </c>
       <c r="R13" s="11"/>
@@ -1283,7 +1277,7 @@
         <f t="shared" si="1"/>
         <v>1912</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="26">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="C14" s="11"/>
@@ -1291,7 +1285,7 @@
         <f t="shared" si="2"/>
         <v>1932</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="24">
         <v>-0.1515</v>
       </c>
       <c r="F14" s="15"/>
@@ -1299,7 +1293,7 @@
         <f t="shared" si="2"/>
         <v>1952</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="26">
         <v>0.1178</v>
       </c>
       <c r="I14" s="11"/>
@@ -1307,7 +1301,7 @@
         <f t="shared" si="2"/>
         <v>1972</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="26">
         <v>0.15629999999999999</v>
       </c>
       <c r="L14" s="11"/>
@@ -1315,7 +1309,7 @@
         <f t="shared" si="3"/>
         <v>1992</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="26">
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="O14" s="11"/>
@@ -1323,7 +1317,7 @@
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="26">
         <v>0.1341</v>
       </c>
       <c r="R14" s="11"/>
@@ -1335,7 +1329,7 @@
         <f t="shared" si="1"/>
         <v>1913</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="24">
         <v>-0.10299999999999999</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -1345,7 +1339,7 @@
         <f t="shared" si="2"/>
         <v>1933</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="26">
         <v>0.46589999999999998</v>
       </c>
       <c r="F15" s="15"/>
@@ -1353,7 +1347,7 @@
         <f t="shared" si="2"/>
         <v>1953</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="24">
         <v>-6.6199999999999995E-2</v>
       </c>
       <c r="I15" s="12"/>
@@ -1361,7 +1355,7 @@
         <f t="shared" si="2"/>
         <v>1973</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="24">
         <v>-0.17369999999999999</v>
       </c>
       <c r="L15" s="12"/>
@@ -1369,7 +1363,7 @@
         <f t="shared" si="3"/>
         <v>1993</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="27">
         <v>7.0599999999999996E-2</v>
       </c>
       <c r="O15" s="11"/>
@@ -1377,7 +1371,7 @@
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="Q15" s="26">
         <v>0.29599999999999999</v>
       </c>
       <c r="R15" s="11"/>
@@ -1389,7 +1383,7 @@
         <f t="shared" si="1"/>
         <v>1914</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="24">
         <v>-0.05</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -1399,7 +1393,7 @@
         <f t="shared" si="2"/>
         <v>1934</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="24">
         <v>-5.9400000000000001E-2</v>
       </c>
       <c r="F16" s="16"/>
@@ -1407,7 +1401,7 @@
         <f t="shared" si="2"/>
         <v>1954</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="26">
         <v>0.45019999999999999</v>
       </c>
       <c r="I16" s="11"/>
@@ -1415,7 +1409,7 @@
         <f t="shared" si="2"/>
         <v>1974</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="24">
         <v>-0.29720000000000002</v>
       </c>
       <c r="L16" s="12"/>
@@ -1423,7 +1417,7 @@
         <f t="shared" si="3"/>
         <v>1994</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="24">
         <v>-1.54E-2</v>
       </c>
       <c r="O16" s="12"/>
@@ -1431,7 +1425,7 @@
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="26">
         <v>0.1139</v>
       </c>
       <c r="R16" s="11"/>
@@ -1443,7 +1437,7 @@
         <f t="shared" si="1"/>
         <v>1915</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="26">
         <v>0.81699999999999995</v>
       </c>
       <c r="C17" s="11"/>
@@ -1451,7 +1445,7 @@
         <f t="shared" si="2"/>
         <v>1935</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="26">
         <v>0.41370000000000001</v>
       </c>
       <c r="F17" s="15"/>
@@ -1459,7 +1453,7 @@
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="26">
         <v>0.26400000000000001</v>
       </c>
       <c r="I17" s="11"/>
@@ -1467,7 +1461,7 @@
         <f t="shared" si="2"/>
         <v>1975</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="26">
         <v>0.3155</v>
       </c>
       <c r="L17" s="11"/>
@@ -1475,7 +1469,7 @@
         <f t="shared" si="3"/>
         <v>1995</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="26">
         <v>0.34110000000000001</v>
       </c>
       <c r="O17" s="11"/>
@@ -1483,7 +1477,7 @@
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="Q17" s="24">
         <v>-7.3000000000000001E-3</v>
       </c>
       <c r="R17" s="12"/>
@@ -1495,7 +1489,7 @@
         <f t="shared" si="1"/>
         <v>1916</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="26">
         <v>0.02</v>
       </c>
       <c r="C18" s="11"/>
@@ -1503,7 +1497,7 @@
         <f t="shared" si="2"/>
         <v>1936</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="26">
         <v>0.2792</v>
       </c>
       <c r="F18" s="15"/>
@@ -1511,7 +1505,7 @@
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="26">
         <v>2.6200000000000001E-2</v>
       </c>
       <c r="I18" s="11"/>
@@ -1519,7 +1513,7 @@
         <f t="shared" si="2"/>
         <v>1976</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="26">
         <v>0.1915</v>
       </c>
       <c r="L18" s="11"/>
@@ -1527,7 +1521,7 @@
         <f t="shared" si="3"/>
         <v>1996</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="26">
         <v>0.2026</v>
       </c>
       <c r="O18" s="12"/>
@@ -1535,7 +1529,7 @@
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="26">
         <v>9.5399999999999999E-2</v>
       </c>
       <c r="R18" s="11"/>
@@ -1547,7 +1541,7 @@
         <f t="shared" si="1"/>
         <v>1917</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="24">
         <v>-0.307</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -1557,7 +1551,7 @@
         <f t="shared" si="2"/>
         <v>1937</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="24">
         <v>-0.38290000000000002</v>
       </c>
       <c r="F19" s="16" t="s">
@@ -1567,7 +1561,7 @@
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="24">
         <v>-0.1431</v>
       </c>
       <c r="I19" s="12"/>
@@ -1575,7 +1569,7 @@
         <f t="shared" si="2"/>
         <v>1977</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="24">
         <v>-0.115</v>
       </c>
       <c r="L19" s="12"/>
@@ -1583,7 +1577,7 @@
         <f t="shared" si="2"/>
         <v>1997</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="27">
         <v>0.31009999999999999</v>
       </c>
       <c r="O19" s="11"/>
@@ -1591,7 +1585,7 @@
         <f t="shared" ref="P19:P21" si="4">+P18+1</f>
         <v>2017</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="26">
         <v>0.19420000000000001</v>
       </c>
       <c r="R19" s="11"/>
@@ -1603,7 +1597,7 @@
         <f t="shared" si="1"/>
         <v>1918</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="26">
         <v>0.105</v>
       </c>
       <c r="C20" s="11"/>
@@ -1611,7 +1605,7 @@
         <f t="shared" si="2"/>
         <v>1938</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="26">
         <v>0.25209999999999999</v>
       </c>
       <c r="F20" s="15"/>
@@ -1619,7 +1613,7 @@
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="26">
         <v>0.38059999999999999</v>
       </c>
       <c r="I20" s="11"/>
@@ -1627,7 +1621,7 @@
         <f t="shared" si="2"/>
         <v>1978</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="26">
         <v>1.06E-2</v>
       </c>
       <c r="L20" s="11"/>
@@ -1635,7 +1629,7 @@
         <f t="shared" si="2"/>
         <v>1998</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="26">
         <v>0.26669999999999999</v>
       </c>
       <c r="O20" s="12"/>
@@ -1643,7 +1637,7 @@
         <f t="shared" si="4"/>
         <v>2018</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="24">
         <v>-6.2399999999999997E-2</v>
       </c>
       <c r="R20" s="12"/>
@@ -1655,14 +1649,14 @@
         <f t="shared" si="1"/>
         <v>1919</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="26">
         <v>0.30499999999999999</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="2"/>
         <v>1939</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="24">
         <v>-5.45E-2</v>
       </c>
       <c r="F21" s="17" t="s">
@@ -1672,7 +1666,7 @@
         <f t="shared" si="2"/>
         <v>1959</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="26">
         <v>8.48E-2</v>
       </c>
       <c r="I21" s="11"/>
@@ -1680,7 +1674,7 @@
         <f t="shared" si="2"/>
         <v>1979</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="26">
         <v>0.1231</v>
       </c>
       <c r="L21" s="11"/>
@@ -1688,7 +1682,7 @@
         <f t="shared" si="2"/>
         <v>1999</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="26">
         <v>0.1953</v>
       </c>
       <c r="O21" s="11"/>
@@ -1696,7 +1690,7 @@
         <f t="shared" si="4"/>
         <v>2019</v>
       </c>
-      <c r="Q21" s="28">
+      <c r="Q21" s="26">
         <v>0.2888</v>
       </c>
       <c r="R21" s="11"/>
@@ -1731,7 +1725,7 @@
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="31">
+      <c r="B25" s="29">
         <v>35000000</v>
       </c>
       <c r="E25" s="14"/>
@@ -1739,10 +1733,10 @@
       <c r="V25" s="7"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="31">
+      <c r="B26" s="29">
         <v>346</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="28" t="s">
         <v>0</v>
       </c>
       <c r="F26" t="s">
@@ -1751,7 +1745,7 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="31">
+      <c r="B27" s="29">
         <f>+B25/B26</f>
         <v>101156.06936416186</v>
       </c>

--- a/Macro/Sp500 Performance.xlsx
+++ b/Macro/Sp500 Performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="457" documentId="8_{19B4C01C-FB66-4D00-BB83-0D763A386552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FDA5556-8DA7-4318-8E15-19C6B4AB1218}"/>
+  <xr:revisionPtr revIDLastSave="459" documentId="8_{19B4C01C-FB66-4D00-BB83-0D763A386552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56E16771-A08F-41CD-A15C-87C05AC03D94}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1365" windowWidth="23070" windowHeight="12555" xr2:uid="{F5072211-9D0E-40D6-9508-D60B2CDFFF49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5072211-9D0E-40D6-9508-D60B2CDFFF49}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>WWII</t>
-  </si>
-  <si>
-    <t>Great Depression</t>
   </si>
   <si>
     <t>Falência em massa e desmprego elevado</t>
@@ -90,6 +87,12 @@
   </si>
   <si>
     <t>Receção severa e deflação</t>
+  </si>
+  <si>
+    <t>Great Depression/ Black Thursday</t>
+  </si>
+  <si>
+    <t>Oil crisis</t>
   </si>
 </sst>
 </file>
@@ -264,6 +267,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -585,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35058BF-4C56-4770-91B7-2B435194DCAA}">
   <dimension ref="A2:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="XEH1" workbookViewId="0">
-      <selection activeCell="XFD3" sqref="XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +620,7 @@
         <v>-0.32600000000000001</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="11">
         <f>+D21+1</f>
@@ -647,7 +654,7 @@
         <v>-0.1014</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S2" s="11">
         <f>+P21+1</f>
@@ -666,7 +673,7 @@
         <v>-8.6999999999999994E-2</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="11">
         <f>+D2+1</f>
@@ -708,7 +715,7 @@
         <v>-0.13039999999999999</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S3" s="11">
         <f t="shared" si="0"/>
@@ -775,7 +782,7 @@
         <v>-0.19439999999999999</v>
       </c>
       <c r="U4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -787,7 +794,7 @@
         <v>-0.23599999999999999</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="2"/>
@@ -1010,7 +1017,7 @@
         <v>-0.377</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="2"/>
@@ -1105,7 +1112,7 @@
         <v>-0.38490000000000002</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
@@ -1127,7 +1134,7 @@
         <v>-0.1191</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G11" s="11">
         <f t="shared" si="2"/>
@@ -1173,7 +1180,7 @@
         <v>-0.17899999999999999</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="2"/>
@@ -1235,7 +1242,7 @@
         <v>-0.47070000000000001</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" si="2"/>
@@ -1358,7 +1365,9 @@
       <c r="K15" s="24">
         <v>-0.17369999999999999</v>
       </c>
-      <c r="L15" s="12"/>
+      <c r="L15" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="M15" s="11">
         <f t="shared" si="3"/>
         <v>1993</v>
@@ -1387,7 +1396,7 @@
         <v>-0.05</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="2"/>
@@ -1545,7 +1554,7 @@
         <v>-0.307</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="2"/>
@@ -1555,7 +1564,7 @@
         <v>-0.38290000000000002</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="2"/>
@@ -1740,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26" s="11"/>
     </row>
